--- a/Data/StageData1.xlsx
+++ b/Data/StageData1.xlsx
@@ -23,6 +23,15 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>stage1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
@@ -42,12 +51,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -64,11 +79,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -351,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -364,30 +382,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" s="1">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1">
-        <v>2</v>
-      </c>
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
@@ -400,10 +404,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
@@ -432,7 +436,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" s="1">
         <v>2</v>
@@ -461,7 +465,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" s="1">
         <v>2</v>
@@ -571,7 +575,36 @@
         <v>2</v>
       </c>
     </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Data/StageData1.xlsx
+++ b/Data/StageData1.xlsx
@@ -87,7 +87,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -372,7 +372,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -385,13 +385,27 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="B1" s="1">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
@@ -602,9 +616,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
-  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Data/StageData1.xlsx
+++ b/Data/StageData1.xlsx
@@ -372,7 +372,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -392,7 +392,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1">
         <v>0</v>
@@ -493,10 +493,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -522,10 +522,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
